--- a/Evaluation/RQ1.xlsx
+++ b/Evaluation/RQ1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anity\git\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58D5B69F-1623-44A6-8C0C-76B94F984499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BEBBD1-5D74-411F-8B05-65CB396EA8F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{03C71019-2763-4B8F-8DF2-8528C85D8A90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Website</t>
   </si>
@@ -51,9 +51,6 @@
     <t>FP</t>
   </si>
   <si>
-    <t>FN</t>
-  </si>
-  <si>
     <t>Precision</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>F1</t>
   </si>
   <si>
-    <t>Ground truth total</t>
-  </si>
-  <si>
     <t>www.w3schools.com</t>
   </si>
   <si>
@@ -109,6 +103,9 @@
   </si>
   <si>
     <t>www.amazon.com</t>
+  </si>
+  <si>
+    <t>Ground truth - # changed elements</t>
   </si>
 </sst>
 </file>
@@ -488,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4571150B-0505-44D9-A04C-BDF9C34E0D40}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,19 +518,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>148</v>
@@ -545,25 +539,22 @@
         <v>6</v>
       </c>
       <c r="F2" s="4">
-        <v>30</v>
+        <v>0.96</v>
       </c>
       <c r="G2" s="4">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="H2" s="4">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="I2" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="J2" s="4">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
         <v>87</v>
@@ -575,27 +566,24 @@
         <v>55</v>
       </c>
       <c r="F3" s="4">
-        <v>72</v>
+        <v>0.37</v>
       </c>
       <c r="G3" s="4">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="H3" s="4">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="I3" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="J3" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>37</v>
@@ -607,25 +595,22 @@
         <v>2</v>
       </c>
       <c r="F4" s="4">
-        <v>7</v>
+        <v>0.95</v>
       </c>
       <c r="G4" s="4">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="H4" s="4">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="I4" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="J4" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>22</v>
@@ -637,27 +622,24 @@
         <v>16</v>
       </c>
       <c r="F5" s="4">
-        <v>22</v>
+        <v>0.27</v>
       </c>
       <c r="G5" s="4">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="H5" s="4">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I5" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="J5" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>81</v>
@@ -669,25 +651,22 @@
         <v>14</v>
       </c>
       <c r="F6" s="4">
-        <v>13</v>
+        <v>0.83</v>
       </c>
       <c r="G6" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="H6" s="4">
         <v>0.83</v>
       </c>
-      <c r="H6" s="4">
-        <v>0.84</v>
-      </c>
       <c r="I6" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="J6" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
         <v>40</v>
@@ -699,27 +678,24 @@
         <v>25</v>
       </c>
       <c r="F7" s="4">
-        <v>32</v>
+        <v>0.38</v>
       </c>
       <c r="G7" s="4">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="H7" s="4">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I7" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="J7" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
         <v>22</v>
@@ -731,25 +707,22 @@
         <v>4</v>
       </c>
       <c r="F8" s="4">
-        <v>9</v>
+        <v>0.82</v>
       </c>
       <c r="G8" s="4">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="H8" s="4">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="I8" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="J8" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
         <v>13</v>
@@ -761,27 +734,24 @@
         <v>2</v>
       </c>
       <c r="F9" s="4">
-        <v>11</v>
+        <v>0.85</v>
       </c>
       <c r="G9" s="4">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="4">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="I9" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="J9" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4">
         <v>45</v>
@@ -793,25 +763,22 @@
         <v>4</v>
       </c>
       <c r="F10" s="4">
-        <v>11</v>
+        <v>0.91</v>
       </c>
       <c r="G10" s="4">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="H10" s="4">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="I10" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="J10" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
         <v>26</v>
@@ -823,27 +790,24 @@
         <v>24</v>
       </c>
       <c r="F11" s="4">
-        <v>32</v>
+        <v>0.08</v>
       </c>
       <c r="G11" s="4">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="H11" s="4">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I11" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J11" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4">
         <v>58</v>
@@ -855,25 +819,22 @@
         <v>3</v>
       </c>
       <c r="F12" s="4">
-        <v>15</v>
+        <v>0.95</v>
       </c>
       <c r="G12" s="4">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
       <c r="H12" s="4">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="I12" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="J12" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4">
         <v>23</v>
@@ -885,27 +846,24 @@
         <v>13</v>
       </c>
       <c r="F13" s="4">
-        <v>20</v>
+        <v>0.43</v>
       </c>
       <c r="G13" s="4">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="H13" s="4">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="I13" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="J13" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4">
         <v>43</v>
@@ -917,25 +875,22 @@
         <v>2</v>
       </c>
       <c r="F14" s="4">
-        <v>8</v>
+        <v>0.95</v>
       </c>
       <c r="G14" s="4">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="H14" s="4">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="I14" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="J14" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4">
         <v>16</v>
@@ -947,27 +902,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="4">
-        <v>14</v>
+        <v>0.81</v>
       </c>
       <c r="G15" s="4">
-        <v>0.81</v>
+        <v>0.48</v>
       </c>
       <c r="H15" s="4">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="I15" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="J15" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4">
         <v>57</v>
@@ -979,25 +931,22 @@
         <v>4</v>
       </c>
       <c r="F16" s="4">
-        <v>10</v>
+        <v>0.93</v>
       </c>
       <c r="G16" s="4">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="H16" s="4">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="I16" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="J16" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4">
         <v>25</v>
@@ -1009,27 +958,24 @@
         <v>4</v>
       </c>
       <c r="F17" s="4">
-        <v>17</v>
+        <v>0.84</v>
       </c>
       <c r="G17" s="4">
-        <v>0.84</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H17" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.66</v>
       </c>
       <c r="I17" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="J17" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4">
         <v>51</v>
@@ -1041,25 +987,22 @@
         <v>6</v>
       </c>
       <c r="F18" s="4">
-        <v>7</v>
+        <v>0.88</v>
       </c>
       <c r="G18" s="4">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="H18" s="4">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I18" s="4">
-        <v>0.87</v>
-      </c>
-      <c r="J18" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4">
         <v>30</v>
@@ -1071,27 +1014,24 @@
         <v>14</v>
       </c>
       <c r="F19" s="4">
-        <v>18</v>
+        <v>0.53</v>
       </c>
       <c r="G19" s="4">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="H19" s="4">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="I19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4">
         <v>20</v>
@@ -1103,25 +1043,22 @@
         <v>2</v>
       </c>
       <c r="F20" s="4">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="G20" s="4">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="H20" s="4">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="I20" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="J20" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
@@ -1133,27 +1070,24 @@
         <v>9</v>
       </c>
       <c r="F21" s="4">
-        <v>12</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G21" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="H21" s="4">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="I21" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="J21" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4">
         <v>27</v>
@@ -1165,25 +1099,22 @@
         <v>2</v>
       </c>
       <c r="F22" s="4">
-        <v>7</v>
+        <v>0.93</v>
       </c>
       <c r="G22" s="4">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="H22" s="4">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="I22" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="J22" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4">
         <v>21</v>
@@ -1195,27 +1126,24 @@
         <v>17</v>
       </c>
       <c r="F23" s="4">
-        <v>20</v>
+        <v>0.19</v>
       </c>
       <c r="G23" s="4">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="H23" s="4">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I23" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="J23" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4">
         <v>35</v>
@@ -1227,25 +1155,22 @@
         <v>3</v>
       </c>
       <c r="F24" s="4">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="G24" s="4">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
       <c r="H24" s="4">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="I24" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="J24" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4">
         <v>19</v>
@@ -1257,27 +1182,24 @@
         <v>9</v>
       </c>
       <c r="F25" s="4">
-        <v>16</v>
+        <v>0.53</v>
       </c>
       <c r="G25" s="4">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="H25" s="4">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="I25" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="J25" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="4">
         <v>97</v>
@@ -1289,25 +1211,22 @@
         <v>5</v>
       </c>
       <c r="F26" s="4">
-        <v>37</v>
+        <v>0.95</v>
       </c>
       <c r="G26" s="4">
-        <v>0.95</v>
+        <v>0.71</v>
       </c>
       <c r="H26" s="4">
-        <v>0.71</v>
+        <v>0.81</v>
       </c>
       <c r="I26" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="J26" s="4">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4">
         <v>25</v>
@@ -1319,18 +1238,15 @@
         <v>17</v>
       </c>
       <c r="F27" s="4">
-        <v>50</v>
+        <v>0.32</v>
       </c>
       <c r="G27" s="4">
-        <v>0.32</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H27" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I27" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="J27" s="4">
         <v>58</v>
       </c>
     </row>
